--- a/templates/experience.xlsx
+++ b/templates/experience.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hr-database\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2547DF17-78D4-4CE6-AF50-AF3D43E8ED32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62072FC2-29F2-449F-828E-28D1A473096A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{7FA7E487-0FC9-42DD-A7B4-C19D7E329EF7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Employee Code</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Experience with IRCS</t>
-  </si>
-  <si>
-    <t>Total Experience</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500F5996-147F-4548-BD2C-CECD84644199}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,10 +394,9 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,9 +406,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
